--- a/DnaRepairSpreadsheetParser/test/exampleData/test/NCGC-DNA repair.short.xlsx
+++ b/DnaRepairSpreadsheetParser/test/exampleData/test/NCGC-DNA repair.short.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="121">
   <si>
     <t>Instructions:
 Fill out from left to right.  Watch for red errors, correct them before moving on to the next column</t>
@@ -398,6 +398,9 @@
   </si>
   <si>
     <t>CID:5280961</t>
+  </si>
+  <si>
+    <t>Assay component role</t>
   </si>
 </sst>
 </file>
@@ -448,7 +451,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -466,6 +469,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -775,7 +781,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BB5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -836,46 +844,46 @@
       <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10" t="s">
+      <c r="O1" s="11"/>
+      <c r="P1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10" t="s">
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
       <c r="U1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="10"/>
+      <c r="W1" s="11"/>
       <c r="X1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Y1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="Z1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="9" t="s">
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
     </row>
     <row r="2" spans="1:54" s="3" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
@@ -896,8 +904,8 @@
       <c r="F2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>1</v>
+      <c r="G2" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>25</v>
